--- a/Data/Output/Dados Cliente.xlsx
+++ b/Data/Output/Dados Cliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A9985D-74F1-46D4-B7E4-0EBAB0C425F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340C84A-633A-4472-AFB5-CC9C862644F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>Nome</x:t>
   </x:si>
@@ -35,34 +35,16 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>Lucas</x:t>
+    <x:t>Fabio</x:t>
   </x:si>
   <x:si>
     <x:t>morais.lucas.2004@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> AGRO BUSINESS</x:t>
+    <x:t xml:space="preserve"> FOOD</x:t>
   </x:si>
   <x:si>
     <x:t>Enviado</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marcelo</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> CONSTRUÇÃO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Helio</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> COOPERATIVA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michelle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VAREJO</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -416,7 +398,9 @@
   </x:sheetPr>
   <x:dimension ref="A1:D1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D5" sqref="D5 D5:D5 A1:D5"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
@@ -454,48 +438,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="A4" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="A5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="5" spans="1:4"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/Output/Dados Cliente.xlsx
+++ b/Data/Output/Dados Cliente.xlsx
@@ -1,111 +1,380 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340C84A-633A-4472-AFB5-CC9C862644F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="DADOS CLIENTES" sheetId="2" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8E74FE-F0F5-4F9D-8F69-7CC06A80E36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="DADOS CLIENTES" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <x:si>
-    <x:t>Nome</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Segmento</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fabio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>morais.lucas.2004@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> FOOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Enviado</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="101">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Segmento</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>fabio.lucas@pepsico.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOOD</t>
+  </si>
+  <si>
+    <t>Enviado</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>rafael@abbrasil.com.br</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>eduardo.ito@jasminealimentos.com</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>raul.ferreira@apisflora.com.br</t>
+  </si>
+  <si>
+    <t>Eher</t>
+  </si>
+  <si>
+    <t>eher@bunge.com.br</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>nelson.scuracchio@enovafoods.com.br</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>acandido@planetabrasileiro.com</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>jay.bierley@bunge.com.br</t>
+  </si>
+  <si>
+    <t>eduardo.caceres@pepsico.com.br</t>
+  </si>
+  <si>
+    <t>Ediana</t>
+  </si>
+  <si>
+    <t>ediana.limberg@xando.com.br</t>
+  </si>
+  <si>
+    <t>Paschoal</t>
+  </si>
+  <si>
+    <t>paschoal.filho@chocolates.com.co</t>
+  </si>
+  <si>
+    <t>Tania</t>
+  </si>
+  <si>
+    <t>tania.campolina@pifpaf.com.br</t>
+  </si>
+  <si>
+    <t>Arlindo</t>
+  </si>
+  <si>
+    <t>arlindo.mendonca@cerealouro.com.br</t>
+  </si>
+  <si>
+    <t>Claudio</t>
+  </si>
+  <si>
+    <t>claudio.martinez@zaeli.com.br</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>daniel.yasunaka@lineaalimentos.com.br</t>
+  </si>
+  <si>
+    <t>Evandro</t>
+  </si>
+  <si>
+    <t>evandro.evandro@casasuica.com.br</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>joao.fontes@enovafoods.com.br</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>rodrigo@moinhosantamaria.com.br</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>diego@grandfood.net</t>
+  </si>
+  <si>
+    <t>Vagner</t>
+  </si>
+  <si>
+    <t>vagner.santos@atlheticanutrition.com.br</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>jose_m@enovafoods.com.br</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>karl@fruki.com.br</t>
+  </si>
+  <si>
+    <t>Evando</t>
+  </si>
+  <si>
+    <t>evando.santos@alibra.com.br</t>
+  </si>
+  <si>
+    <t>ctorres@casteloalimentos.com.br</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>marcelomerotto@cacique.com.br</t>
+  </si>
+  <si>
+    <t>santos.daniel@rancheiro.com.br</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>fernando@jasminealimentos.com</t>
+  </si>
+  <si>
+    <t>Joniel</t>
+  </si>
+  <si>
+    <t>joniel.passos@novacana.com</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>alex.felix@brassuco.com.br</t>
+  </si>
+  <si>
+    <t>fabio.gimenez@igaratiba.com.br</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>daniela.guedes@macca.com.br</t>
+  </si>
+  <si>
+    <t>Priscilla</t>
+  </si>
+  <si>
+    <t>priscilla.serrano@vigor.com.br</t>
+  </si>
+  <si>
+    <t>Elisabeth</t>
+  </si>
+  <si>
+    <t>elisabeth.costa@kelloggs.com.br</t>
+  </si>
+  <si>
+    <t>Silvio</t>
+  </si>
+  <si>
+    <t>silvio.gomes@gtfoods.com.br</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>deboramartins@embare.com.br</t>
+  </si>
+  <si>
+    <t>fabio.misawa@ajinomotoanimalnutrition.com.br</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>carvalho@casteloalimentos.com.br</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>felipe@moinhosantamaria.com.br</t>
+  </si>
+  <si>
+    <t>Joaquim</t>
+  </si>
+  <si>
+    <t>joaquim.araujo@cafepindense.com.br</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>victor.cardoso@grupocicopal.com</t>
+  </si>
+  <si>
+    <t>Tadeu</t>
+  </si>
+  <si>
+    <t>tadeu@cafecaicara.com.br</t>
+  </si>
+  <si>
+    <t>joao.roth@orquidea.com.br</t>
+  </si>
+  <si>
+    <t>Elcio</t>
+  </si>
+  <si>
+    <t>elcioalves@buaizalimentos.com.br</t>
+  </si>
+  <si>
+    <t>Fabiana</t>
+  </si>
+  <si>
+    <t>mendes.fabiana@betanialacteos.com.br</t>
+  </si>
+  <si>
+    <t>rovina@valalimentos.com.br</t>
+  </si>
+  <si>
+    <t>Helio</t>
+  </si>
+  <si>
+    <t>helio.effting@duasrodas.com</t>
+  </si>
+  <si>
+    <t>Humberto</t>
+  </si>
+  <si>
+    <t>humberto.saad@enovafoods.com.br</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>israel.lebre@arcor.com.br</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>jaime.laranjeiro@giraffas.com.br</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>luciano@camil.com.br</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>morais.lucas.2004@gmail.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,58 +661,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D5" sqref="D5 D5:D5 A1:D5"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="10.425781" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="44.425781" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="15.570312" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4"/>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>